--- a/netforce_account_report/netforce_account_report/reports/account_trans.xlsx
+++ b/netforce_account_report/netforce_account_report/reports/account_trans.xlsx
@@ -5,93 +5,103 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="990" firstSheet="0" activeTab="0"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="963" firstSheet="0" activeTab="0"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId2"/>
   </sheets>
   <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.001"/>
-  <extLst>
-    <ext xmlns:loext="http://schemas.libreoffice.org/" uri="{7626C862-2A13-11E5-B345-FEFF819CDC9F}">
-      <loext:extCalcPr stringRefSyntax="CalcA1ExcelA1"/>
-    </ext>
-  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="24">
-  <si>
-    <t xml:space="preserve">Account Transactions</t>
-  </si>
-  <si>
-    <t xml:space="preserve">{{company_name}}</t>
-  </si>
-  <si>
-    <t xml:space="preserve">From {{fmt_date date_from}} to {{fmt_date date_to}}</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Date</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Number</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Description</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Contact</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Debit</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Credit</t>
-  </si>
-  <si>
-    <t xml:space="preserve">{{#each objs}}</t>
-  </si>
-  <si>
-    <t xml:space="preserve">{{fmt_date move_date}}</t>
-  </si>
-  <si>
-    <t xml:space="preserve">{{move_number}}</t>
-  </si>
-  <si>
-    <t xml:space="preserve">{{description}}</t>
-  </si>
-  <si>
-    <t xml:space="preserve">{{contact_id.1.}}</t>
-  </si>
-  <si>
-    <t xml:space="preserve">{{currency debit zero=" "}}</t>
-  </si>
-  <si>
-    <t xml:space="preserve">{{currency credit zero=" "}}</t>
-  </si>
-  <si>
-    <t xml:space="preserve">{{/each}}</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Total</t>
-  </si>
-  <si>
-    <t xml:space="preserve">{{currency totals.debit zero=" "}}</t>
-  </si>
-  <si>
-    <t xml:space="preserve">{{currency totals.credit zero=" "}}</t>
-  </si>
-  <si>
-    <t xml:space="preserve">{{fmt_date date_to}}</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Balance</t>
-  </si>
-  <si>
-    <t xml:space="preserve">{{currency balance_debit zero=" "}}</t>
-  </si>
-  <si>
-    <t xml:space="preserve">{{currency balance_credit zero=" "}}</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="29">
+  <si>
+    <t>Account Transactions</t>
+  </si>
+  <si>
+    <t>{{company_name}}</t>
+  </si>
+  <si>
+    <t>From {{fmt_date date_from}} to {{fmt_date date_to}}</t>
+  </si>
+  <si>
+    <t>{{#if track_name}}</t>
+  </si>
+  <si>
+    <t>Tracking: {{track_name}}</t>
+  </si>
+  <si>
+    <t>{{/if}}</t>
+  </si>
+  <si>
+    <t>{{#if track2_name}}</t>
+  </si>
+  <si>
+    <t>Tracking: {{track2_name}}</t>
+  </si>
+  <si>
+    <t>Date</t>
+  </si>
+  <si>
+    <t>Number</t>
+  </si>
+  <si>
+    <t>Description</t>
+  </si>
+  <si>
+    <t>Contact</t>
+  </si>
+  <si>
+    <t>Debit</t>
+  </si>
+  <si>
+    <t>Credit</t>
+  </si>
+  <si>
+    <t>{{#each objs}}</t>
+  </si>
+  <si>
+    <t>{{fmt_date move_date}}</t>
+  </si>
+  <si>
+    <t>{{move_number}}</t>
+  </si>
+  <si>
+    <t>{{description}}</t>
+  </si>
+  <si>
+    <t>{{contact_id.1.}}</t>
+  </si>
+  <si>
+    <t>{{currency debit zero=" "}}</t>
+  </si>
+  <si>
+    <t>{{currency credit zero=" "}}</t>
+  </si>
+  <si>
+    <t>{{/each}}</t>
+  </si>
+  <si>
+    <t>Total</t>
+  </si>
+  <si>
+    <t>{{currency totals.debit zero=" "}}</t>
+  </si>
+  <si>
+    <t>{{currency totals.credit zero=" "}}</t>
+  </si>
+  <si>
+    <t>{{fmt_date date_to}}</t>
+  </si>
+  <si>
+    <t>Balance</t>
+  </si>
+  <si>
+    <t>{{currency balance_debit zero=" "}}</t>
+  </si>
+  <si>
+    <t>{{currency balance_credit zero=" "}}</t>
   </si>
 </sst>
 </file>
@@ -99,9 +109,9 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="1">
-    <numFmt numFmtId="164" formatCode="General"/>
+    <numFmt numFmtId="164" formatCode="GENERAL"/>
   </numFmts>
-  <fonts count="5">
+  <fonts count="6">
     <font>
       <sz val="10"/>
       <name val="Arial"/>
@@ -129,6 +139,12 @@
       <name val="Arial"/>
       <family val="2"/>
       <charset val="1"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF800000"/>
+      <name val="Arial"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="2">
@@ -173,7 +189,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="11">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -184,6 +200,10 @@
     </xf>
     <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
@@ -231,10 +251,10 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:H9"/>
+  <dimension ref="A1:H15"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C5" activeCellId="0" sqref="C5"/>
+      <selection pane="topLeft" activeCell="C9" activeCellId="0" sqref="C9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
@@ -274,85 +294,138 @@
       <c r="D3" s="2"/>
       <c r="E3" s="2"/>
     </row>
-    <row r="4" s="3" customFormat="true" ht="12.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A4" s="3" t="s">
+    <row r="4" customFormat="false" ht="12.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A4" s="0" t="s">
         <v>3</v>
       </c>
-      <c r="B4" s="3" t="s">
+      <c r="B4" s="1"/>
+      <c r="C4" s="2"/>
+      <c r="D4" s="2"/>
+      <c r="E4" s="2"/>
+    </row>
+    <row r="5" customFormat="false" ht="12.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B5" s="1"/>
+      <c r="C5" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="C4" s="4" t="s">
+      <c r="D5" s="2"/>
+      <c r="E5" s="2"/>
+    </row>
+    <row r="6" customFormat="false" ht="12.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A6" s="0" t="s">
         <v>5</v>
       </c>
-      <c r="D4" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="E4" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="F4" s="3" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="5" customFormat="false" ht="12.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A5" s="0" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="6" customFormat="false" ht="12.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A6" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="B6" s="5" t="s">
-        <v>11</v>
-      </c>
-      <c r="C6" s="6" t="s">
-        <v>12</v>
-      </c>
-      <c r="D6" s="6" t="s">
-        <v>13</v>
-      </c>
-      <c r="E6" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="F6" s="7" t="s">
-        <v>15</v>
-      </c>
-      <c r="G6" s="6"/>
-      <c r="H6" s="6"/>
+      <c r="B6" s="1"/>
+      <c r="C6" s="2"/>
+      <c r="D6" s="2"/>
+      <c r="E6" s="2"/>
     </row>
     <row r="7" customFormat="false" ht="12.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A7" s="0" t="s">
+        <v>6</v>
+      </c>
+      <c r="B7" s="1"/>
+      <c r="C7" s="2"/>
+      <c r="D7" s="2"/>
+      <c r="E7" s="2"/>
+    </row>
+    <row r="8" customFormat="false" ht="12.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A8" s="3"/>
+      <c r="B8" s="1"/>
+      <c r="C8" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="D8" s="2"/>
+      <c r="E8" s="2"/>
+    </row>
+    <row r="9" customFormat="false" ht="12.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A9" s="0" t="s">
+        <v>5</v>
+      </c>
+      <c r="B9" s="1"/>
+      <c r="C9" s="2"/>
+      <c r="D9" s="2"/>
+      <c r="E9" s="2"/>
+    </row>
+    <row r="10" s="4" customFormat="true" ht="12.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A10" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="B10" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="C10" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="D10" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="E10" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="F10" s="4" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="11" customFormat="false" ht="12.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A11" s="0" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="12" customFormat="false" ht="12.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A12" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="B12" s="6" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="8" customFormat="false" ht="12.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A8" s="3" t="s">
+      <c r="C12" s="7" t="s">
         <v>17</v>
       </c>
-      <c r="C8" s="8"/>
-      <c r="D8" s="8"/>
-      <c r="E8" s="9" t="s">
+      <c r="D12" s="7" t="s">
         <v>18</v>
       </c>
-      <c r="F8" s="9" t="s">
+      <c r="E12" s="8" t="s">
         <v>19</v>
       </c>
-      <c r="G8" s="8"/>
-      <c r="H8" s="8"/>
-    </row>
-    <row r="9" customFormat="false" ht="12.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A9" s="8" t="s">
+      <c r="F12" s="8" t="s">
         <v>20</v>
       </c>
-      <c r="D9" s="3" t="s">
+      <c r="G12" s="7"/>
+      <c r="H12" s="7"/>
+    </row>
+    <row r="13" customFormat="false" ht="12.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A13" s="0" t="s">
         <v>21</v>
       </c>
-      <c r="E9" s="9" t="s">
+    </row>
+    <row r="14" customFormat="false" ht="12.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A14" s="4" t="s">
         <v>22</v>
       </c>
-      <c r="F9" s="9" t="s">
+      <c r="C14" s="9"/>
+      <c r="D14" s="9"/>
+      <c r="E14" s="10" t="s">
         <v>23</v>
+      </c>
+      <c r="F14" s="10" t="s">
+        <v>24</v>
+      </c>
+      <c r="G14" s="9"/>
+      <c r="H14" s="9"/>
+    </row>
+    <row r="15" customFormat="false" ht="12.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A15" s="9" t="s">
+        <v>25</v>
+      </c>
+      <c r="D15" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="E15" s="10" t="s">
+        <v>27</v>
+      </c>
+      <c r="F15" s="10" t="s">
+        <v>28</v>
       </c>
     </row>
   </sheetData>

--- a/netforce_account_report/netforce_account_report/reports/account_trans.xlsx
+++ b/netforce_account_report/netforce_account_report/reports/account_trans.xlsx
@@ -5,103 +5,120 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="963" firstSheet="0" activeTab="0"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="0"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId2"/>
   </sheets>
   <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.001"/>
+  <extLst>
+    <ext xmlns:loext="http://schemas.libreoffice.org/" uri="{7626C862-2A13-11E5-B345-FEFF819CDC9F}">
+      <loext:extCalcPr stringRefSyntax="CalcA1ExcelA1"/>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="29">
-  <si>
-    <t>Account Transactions</t>
-  </si>
-  <si>
-    <t>{{company_name}}</t>
-  </si>
-  <si>
-    <t>From {{fmt_date date_from}} to {{fmt_date date_to}}</t>
-  </si>
-  <si>
-    <t>{{#if track_name}}</t>
-  </si>
-  <si>
-    <t>Tracking: {{track_name}}</t>
-  </si>
-  <si>
-    <t>{{/if}}</t>
-  </si>
-  <si>
-    <t>{{#if track2_name}}</t>
-  </si>
-  <si>
-    <t>Tracking: {{track2_name}}</t>
-  </si>
-  <si>
-    <t>Date</t>
-  </si>
-  <si>
-    <t>Number</t>
-  </si>
-  <si>
-    <t>Description</t>
-  </si>
-  <si>
-    <t>Contact</t>
-  </si>
-  <si>
-    <t>Debit</t>
-  </si>
-  <si>
-    <t>Credit</t>
-  </si>
-  <si>
-    <t>{{#each objs}}</t>
-  </si>
-  <si>
-    <t>{{fmt_date move_date}}</t>
-  </si>
-  <si>
-    <t>{{move_number}}</t>
-  </si>
-  <si>
-    <t>{{description}}</t>
-  </si>
-  <si>
-    <t>{{contact_id.1.}}</t>
-  </si>
-  <si>
-    <t>{{currency debit zero=" "}}</t>
-  </si>
-  <si>
-    <t>{{currency credit zero=" "}}</t>
-  </si>
-  <si>
-    <t>{{/each}}</t>
-  </si>
-  <si>
-    <t>Total</t>
-  </si>
-  <si>
-    <t>{{currency totals.debit zero=" "}}</t>
-  </si>
-  <si>
-    <t>{{currency totals.credit zero=" "}}</t>
-  </si>
-  <si>
-    <t>{{fmt_date date_to}}</t>
-  </si>
-  <si>
-    <t>Balance</t>
-  </si>
-  <si>
-    <t>{{currency balance_debit zero=" "}}</t>
-  </si>
-  <si>
-    <t>{{currency balance_credit zero=" "}}</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="33">
+  <si>
+    <t xml:space="preserve">Account Transactions</t>
+  </si>
+  <si>
+    <t xml:space="preserve">{{company_name}}</t>
+  </si>
+  <si>
+    <t xml:space="preserve">From {{fmt_date date_from}} to {{fmt_date date_to}}</t>
+  </si>
+  <si>
+    <t xml:space="preserve">{{#if track_name}}</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Tracking: {{track_name}}</t>
+  </si>
+  <si>
+    <t xml:space="preserve">{{/if}}</t>
+  </si>
+  <si>
+    <t xml:space="preserve">{{#if track2_name}}</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Tracking: {{track2_name}}</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Date</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Number</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Description</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Contact</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Tracking</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Tracking-2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Debit</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Credit</t>
+  </si>
+  <si>
+    <t xml:space="preserve">{{#each objs}}</t>
+  </si>
+  <si>
+    <t xml:space="preserve">{{fmt_date move_date}}</t>
+  </si>
+  <si>
+    <t xml:space="preserve">{{move_number}}</t>
+  </si>
+  <si>
+    <t xml:space="preserve">{{description}}</t>
+  </si>
+  <si>
+    <t xml:space="preserve">{{contact_id.1.}}</t>
+  </si>
+  <si>
+    <t xml:space="preserve">{{track_id.1.}}</t>
+  </si>
+  <si>
+    <t xml:space="preserve">{{track2_id.1.}}</t>
+  </si>
+  <si>
+    <t xml:space="preserve">{{currency debit zero=" "}}</t>
+  </si>
+  <si>
+    <t xml:space="preserve">{{currency credit zero=" "}}</t>
+  </si>
+  <si>
+    <t xml:space="preserve">{{/each}}</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Total</t>
+  </si>
+  <si>
+    <t xml:space="preserve">{{currency totals.debit zero=" "}}</t>
+  </si>
+  <si>
+    <t xml:space="preserve">{{currency totals.credit zero=" "}}</t>
+  </si>
+  <si>
+    <t xml:space="preserve">{{fmt_date date_to}}</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Balance</t>
+  </si>
+  <si>
+    <t xml:space="preserve">{{currency balance_debit zero=" "}}</t>
+  </si>
+  <si>
+    <t xml:space="preserve">{{currency balance_credit zero=" "}}</t>
   </si>
 </sst>
 </file>
@@ -109,9 +126,9 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="1">
-    <numFmt numFmtId="164" formatCode="GENERAL"/>
+    <numFmt numFmtId="164" formatCode="General"/>
   </numFmts>
-  <fonts count="6">
+  <fonts count="17">
     <font>
       <sz val="10"/>
       <name val="Arial"/>
@@ -135,6 +152,87 @@
     </font>
     <font>
       <b val="true"/>
+      <sz val="24"/>
+      <color rgb="FF000000"/>
+      <name val="Arial"/>
+      <family val="2"/>
+      <charset val="1"/>
+    </font>
+    <font>
+      <sz val="18"/>
+      <color rgb="FF000000"/>
+      <name val="Arial"/>
+      <family val="2"/>
+      <charset val="1"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF000000"/>
+      <name val="Arial"/>
+      <family val="2"/>
+      <charset val="1"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF333333"/>
+      <name val="Arial"/>
+      <family val="2"/>
+      <charset val="1"/>
+    </font>
+    <font>
+      <i val="true"/>
+      <sz val="10"/>
+      <color rgb="FF808080"/>
+      <name val="Arial"/>
+      <family val="2"/>
+      <charset val="1"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF006600"/>
+      <name val="Arial"/>
+      <family val="2"/>
+      <charset val="1"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF996600"/>
+      <name val="Arial"/>
+      <family val="2"/>
+      <charset val="1"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FFCC0000"/>
+      <name val="Arial"/>
+      <family val="2"/>
+      <charset val="1"/>
+    </font>
+    <font>
+      <b val="true"/>
+      <sz val="10"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="Arial"/>
+      <family val="2"/>
+      <charset val="1"/>
+    </font>
+    <font>
+      <b val="true"/>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
+      <name val="Arial"/>
+      <family val="2"/>
+      <charset val="1"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="Arial"/>
+      <family val="2"/>
+      <charset val="1"/>
+    </font>
+    <font>
+      <b val="true"/>
       <sz val="10"/>
       <name val="Arial"/>
       <family val="2"/>
@@ -145,17 +243,60 @@
       <color rgb="FF800000"/>
       <name val="Arial"/>
       <family val="2"/>
+      <charset val="1"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="9">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor rgb="FFFFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFCCFFCC"/>
+        <bgColor rgb="FFCCFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCCCC"/>
+        <bgColor rgb="FFDDDDDD"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFCC0000"/>
+        <bgColor rgb="FF800000"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF000000"/>
+        <bgColor rgb="FF003300"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF808080"/>
+        <bgColor rgb="FF969696"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFDDDDDD"/>
+        <bgColor rgb="FFFFCCCC"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border diagonalUp="false" diagonalDown="false">
       <left/>
       <right/>
@@ -163,8 +304,23 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border diagonalUp="false" diagonalDown="false">
+      <left style="thin">
+        <color rgb="FF808080"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF808080"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF808080"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF808080"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="20">
+  <cellStyleXfs count="36">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -188,29 +344,77 @@
     <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="7" fillId="2" borderId="1" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="8" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="9" fillId="3" borderId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="10" fillId="2" borderId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="11" fillId="4" borderId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="11" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="12" fillId="5" borderId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="13" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="14" fillId="6" borderId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="14" fillId="7" borderId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="13" fillId="8" borderId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+    </xf>
   </cellStyleXfs>
   <cellXfs count="11">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -226,23 +430,99 @@
       <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
   </cellXfs>
-  <cellStyles count="6">
+  <cellStyles count="22">
     <cellStyle name="Normal" xfId="0" builtinId="0" customBuiltin="false"/>
     <cellStyle name="Comma" xfId="15" builtinId="3" customBuiltin="false"/>
     <cellStyle name="Comma [0]" xfId="16" builtinId="6" customBuiltin="false"/>
     <cellStyle name="Currency" xfId="17" builtinId="4" customBuiltin="false"/>
     <cellStyle name="Currency [0]" xfId="18" builtinId="7" customBuiltin="false"/>
     <cellStyle name="Percent" xfId="19" builtinId="5" customBuiltin="false"/>
+    <cellStyle name="Heading" xfId="20" builtinId="53" customBuiltin="true"/>
+    <cellStyle name="Heading 1" xfId="21" builtinId="53" customBuiltin="true"/>
+    <cellStyle name="Heading 2" xfId="22" builtinId="53" customBuiltin="true"/>
+    <cellStyle name="Text" xfId="23" builtinId="53" customBuiltin="true"/>
+    <cellStyle name="Note" xfId="24" builtinId="53" customBuiltin="true"/>
+    <cellStyle name="Footnote" xfId="25" builtinId="53" customBuiltin="true"/>
+    <cellStyle name="Status" xfId="26" builtinId="53" customBuiltin="true"/>
+    <cellStyle name="Good" xfId="27" builtinId="53" customBuiltin="true"/>
+    <cellStyle name="Neutral" xfId="28" builtinId="53" customBuiltin="true"/>
+    <cellStyle name="Bad" xfId="29" builtinId="53" customBuiltin="true"/>
+    <cellStyle name="Warning" xfId="30" builtinId="53" customBuiltin="true"/>
+    <cellStyle name="Error" xfId="31" builtinId="53" customBuiltin="true"/>
+    <cellStyle name="Accent" xfId="32" builtinId="53" customBuiltin="true"/>
+    <cellStyle name="Accent 1" xfId="33" builtinId="53" customBuiltin="true"/>
+    <cellStyle name="Accent 2" xfId="34" builtinId="53" customBuiltin="true"/>
+    <cellStyle name="Accent 3" xfId="35" builtinId="53" customBuiltin="true"/>
   </cellStyles>
+  <colors>
+    <indexedColors>
+      <rgbColor rgb="FF000000"/>
+      <rgbColor rgb="FFFFFFFF"/>
+      <rgbColor rgb="FFCC0000"/>
+      <rgbColor rgb="FF00FF00"/>
+      <rgbColor rgb="FF0000FF"/>
+      <rgbColor rgb="FFFFFF00"/>
+      <rgbColor rgb="FFFF00FF"/>
+      <rgbColor rgb="FF00FFFF"/>
+      <rgbColor rgb="FF800000"/>
+      <rgbColor rgb="FF006600"/>
+      <rgbColor rgb="FF000080"/>
+      <rgbColor rgb="FF996600"/>
+      <rgbColor rgb="FF800080"/>
+      <rgbColor rgb="FF008080"/>
+      <rgbColor rgb="FFC0C0C0"/>
+      <rgbColor rgb="FF808080"/>
+      <rgbColor rgb="FF9999FF"/>
+      <rgbColor rgb="FF993366"/>
+      <rgbColor rgb="FFFFFFCC"/>
+      <rgbColor rgb="FFCCFFFF"/>
+      <rgbColor rgb="FF660066"/>
+      <rgbColor rgb="FFFF8080"/>
+      <rgbColor rgb="FF0066CC"/>
+      <rgbColor rgb="FFDDDDDD"/>
+      <rgbColor rgb="FF000080"/>
+      <rgbColor rgb="FFFF00FF"/>
+      <rgbColor rgb="FFFFFF00"/>
+      <rgbColor rgb="FF00FFFF"/>
+      <rgbColor rgb="FF800080"/>
+      <rgbColor rgb="FF800000"/>
+      <rgbColor rgb="FF008080"/>
+      <rgbColor rgb="FF0000FF"/>
+      <rgbColor rgb="FF00CCFF"/>
+      <rgbColor rgb="FFCCFFFF"/>
+      <rgbColor rgb="FFCCFFCC"/>
+      <rgbColor rgb="FFFFFF99"/>
+      <rgbColor rgb="FF99CCFF"/>
+      <rgbColor rgb="FFFF99CC"/>
+      <rgbColor rgb="FFCC99FF"/>
+      <rgbColor rgb="FFFFCCCC"/>
+      <rgbColor rgb="FF3366FF"/>
+      <rgbColor rgb="FF33CCCC"/>
+      <rgbColor rgb="FF99CC00"/>
+      <rgbColor rgb="FFFFCC00"/>
+      <rgbColor rgb="FFFF9900"/>
+      <rgbColor rgb="FFFF6600"/>
+      <rgbColor rgb="FF666699"/>
+      <rgbColor rgb="FF969696"/>
+      <rgbColor rgb="FF003366"/>
+      <rgbColor rgb="FF339966"/>
+      <rgbColor rgb="FF003300"/>
+      <rgbColor rgb="FF333300"/>
+      <rgbColor rgb="FF993300"/>
+      <rgbColor rgb="FF993366"/>
+      <rgbColor rgb="FF333399"/>
+      <rgbColor rgb="FF333333"/>
+    </indexedColors>
+  </colors>
 </styleSheet>
 </file>
 
@@ -251,23 +531,25 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:H15"/>
+  <dimension ref="A1:J15"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C9" activeCellId="0" sqref="C9"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="D1" activeCellId="0" sqref="D1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.8"/>
+  <sheetFormatPr defaultRowHeight="12.8" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="17.280612244898"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="19.1683673469388"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="46.4387755102041"/>
-    <col collapsed="false" hidden="false" max="5" min="4" style="0" width="20.3826530612245"/>
-    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="20.25"/>
-    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="17.8214285714286"/>
-    <col collapsed="false" hidden="false" max="8" min="8" style="0" width="19.7091836734694"/>
-    <col collapsed="false" hidden="false" max="9" min="9" style="0" width="21.0612244897959"/>
-    <col collapsed="false" hidden="false" max="1025" min="10" style="0" width="8.50510204081633"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="17.28"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="19.17"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="42.52"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="20.38"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="5" style="0" width="14.31"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="0" width="20.38"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="8" style="0" width="20.25"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="9" min="9" style="0" width="17.82"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="10" min="10" style="0" width="19.71"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="11" min="11" style="0" width="21.06"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="12" style="0" width="8.51"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -277,6 +559,8 @@
       </c>
       <c r="D1" s="2"/>
       <c r="E1" s="2"/>
+      <c r="F1" s="2"/>
+      <c r="G1" s="2"/>
     </row>
     <row r="2" customFormat="false" ht="12.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B2" s="1"/>
@@ -285,6 +569,8 @@
       </c>
       <c r="D2" s="2"/>
       <c r="E2" s="2"/>
+      <c r="F2" s="2"/>
+      <c r="G2" s="2"/>
     </row>
     <row r="3" customFormat="false" ht="12.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B3" s="1"/>
@@ -293,6 +579,8 @@
       </c>
       <c r="D3" s="2"/>
       <c r="E3" s="2"/>
+      <c r="F3" s="2"/>
+      <c r="G3" s="2"/>
     </row>
     <row r="4" customFormat="false" ht="12.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A4" s="0" t="s">
@@ -302,6 +590,8 @@
       <c r="C4" s="2"/>
       <c r="D4" s="2"/>
       <c r="E4" s="2"/>
+      <c r="F4" s="2"/>
+      <c r="G4" s="2"/>
     </row>
     <row r="5" customFormat="false" ht="12.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B5" s="1"/>
@@ -310,6 +600,8 @@
       </c>
       <c r="D5" s="2"/>
       <c r="E5" s="2"/>
+      <c r="F5" s="2"/>
+      <c r="G5" s="2"/>
     </row>
     <row r="6" customFormat="false" ht="12.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A6" s="0" t="s">
@@ -319,6 +611,8 @@
       <c r="C6" s="2"/>
       <c r="D6" s="2"/>
       <c r="E6" s="2"/>
+      <c r="F6" s="2"/>
+      <c r="G6" s="2"/>
     </row>
     <row r="7" customFormat="false" ht="12.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A7" s="0" t="s">
@@ -328,6 +622,8 @@
       <c r="C7" s="2"/>
       <c r="D7" s="2"/>
       <c r="E7" s="2"/>
+      <c r="F7" s="2"/>
+      <c r="G7" s="2"/>
     </row>
     <row r="8" customFormat="false" ht="12.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A8" s="3"/>
@@ -337,6 +633,8 @@
       </c>
       <c r="D8" s="2"/>
       <c r="E8" s="2"/>
+      <c r="F8" s="2"/>
+      <c r="G8" s="2"/>
     </row>
     <row r="9" customFormat="false" ht="12.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A9" s="0" t="s">
@@ -346,6 +644,8 @@
       <c r="C9" s="2"/>
       <c r="D9" s="2"/>
       <c r="E9" s="2"/>
+      <c r="F9" s="2"/>
+      <c r="G9" s="2"/>
     </row>
     <row r="10" s="4" customFormat="true" ht="12.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A10" s="4" t="s">
@@ -360,78 +660,94 @@
       <c r="D10" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="E10" s="4" t="s">
+      <c r="E10" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="F10" s="4" t="s">
+      <c r="F10" s="5" t="s">
         <v>13</v>
+      </c>
+      <c r="G10" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="H10" s="4" t="s">
+        <v>15</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="12.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A11" s="0" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="12.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A12" s="6" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="B12" s="6" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="C12" s="7" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="D12" s="7" t="s">
-        <v>18</v>
-      </c>
-      <c r="E12" s="8" t="s">
-        <v>19</v>
-      </c>
-      <c r="F12" s="8" t="s">
         <v>20</v>
       </c>
-      <c r="G12" s="7"/>
-      <c r="H12" s="7"/>
+      <c r="E12" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="F12" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="G12" s="8" t="s">
+        <v>23</v>
+      </c>
+      <c r="H12" s="8" t="s">
+        <v>24</v>
+      </c>
+      <c r="I12" s="7"/>
+      <c r="J12" s="7"/>
     </row>
     <row r="13" customFormat="false" ht="12.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A13" s="0" t="s">
-        <v>21</v>
+        <v>25</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="12.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A14" s="4" t="s">
-        <v>22</v>
+        <v>26</v>
       </c>
       <c r="C14" s="9"/>
       <c r="D14" s="9"/>
-      <c r="E14" s="10" t="s">
-        <v>23</v>
-      </c>
-      <c r="F14" s="10" t="s">
-        <v>24</v>
-      </c>
-      <c r="G14" s="9"/>
-      <c r="H14" s="9"/>
+      <c r="E14" s="9"/>
+      <c r="F14" s="9"/>
+      <c r="G14" s="10" t="s">
+        <v>27</v>
+      </c>
+      <c r="H14" s="10" t="s">
+        <v>28</v>
+      </c>
+      <c r="I14" s="9"/>
+      <c r="J14" s="9"/>
     </row>
     <row r="15" customFormat="false" ht="12.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A15" s="9" t="s">
-        <v>25</v>
+        <v>29</v>
       </c>
       <c r="D15" s="4" t="s">
-        <v>26</v>
-      </c>
-      <c r="E15" s="10" t="s">
-        <v>27</v>
-      </c>
-      <c r="F15" s="10" t="s">
-        <v>28</v>
+        <v>30</v>
+      </c>
+      <c r="E15" s="4"/>
+      <c r="F15" s="4"/>
+      <c r="G15" s="10" t="s">
+        <v>31</v>
+      </c>
+      <c r="H15" s="10" t="s">
+        <v>32</v>
       </c>
     </row>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
-  <pageSetup paperSize="1" scale="100" firstPageNumber="1" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" usePrinterDefaults="false" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="true" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <pageSetup paperSize="1" scale="100" firstPageNumber="1" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="true" horizontalDpi="300" verticalDpi="300" copies="1"/>
   <headerFooter differentFirst="false" differentOddEven="false">
     <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;A</oddHeader>
     <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12Page &amp;P</oddFooter>

--- a/netforce_account_report/netforce_account_report/reports/account_trans.xlsx
+++ b/netforce_account_report/netforce_account_report/reports/account_trans.xlsx
@@ -34,7 +34,7 @@
     <t xml:space="preserve">{{#if track_name}}</t>
   </si>
   <si>
-    <t xml:space="preserve">Tracking: {{track_name}}</t>
+    <t xml:space="preserve">Tracking-1: {{track_name}}</t>
   </si>
   <si>
     <t xml:space="preserve">{{/if}}</t>
@@ -43,7 +43,7 @@
     <t xml:space="preserve">{{#if track2_name}}</t>
   </si>
   <si>
-    <t xml:space="preserve">Tracking: {{track2_name}}</t>
+    <t xml:space="preserve">Tracking-2: {{track2_name}}</t>
   </si>
   <si>
     <t xml:space="preserve">Date</t>
@@ -58,7 +58,7 @@
     <t xml:space="preserve">Contact</t>
   </si>
   <si>
-    <t xml:space="preserve">Tracking</t>
+    <t xml:space="preserve">Tracking-1</t>
   </si>
   <si>
     <t xml:space="preserve">Tracking-2</t>
@@ -534,7 +534,7 @@
   <dimension ref="A1:J15"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="D1" activeCellId="0" sqref="D1"/>
+      <selection pane="topLeft" activeCell="C15" activeCellId="0" sqref="C15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -542,14 +542,14 @@
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="17.28"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="19.17"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="42.52"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="20.38"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="20.37"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="5" style="0" width="14.31"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="0" width="20.38"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="0" width="20.37"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="8" style="0" width="20.25"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="9" min="9" style="0" width="17.82"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="10" min="10" style="0" width="19.71"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="11" min="11" style="0" width="21.06"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="12" style="0" width="8.51"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="12" style="0" width="8.52"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
